--- a/references/aact codebook.xlsx
+++ b/references/aact codebook.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="57570" windowHeight="12195"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="studies" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="181">
   <si>
     <t>ctgov</t>
   </si>
@@ -673,6 +673,12 @@
   </si>
   <si>
     <t>SOURCE</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1164,1373 +1170,1471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="74.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
+      <c r="B6" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
+      <c r="B9" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>0</v>
+      <c r="B14" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
       <c r="C16" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>0</v>
+      <c r="B17" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1">
       <c r="A18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B18" s="12"/>
       <c r="C18" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7"/>
+      <c r="I25" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>0</v>
+      <c r="B27" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
       <c r="A28" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>0</v>
+      <c r="B28" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
       <c r="A29" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B29" s="13"/>
       <c r="C29" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7"/>
+      <c r="I29" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B30" s="12"/>
       <c r="C30" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>0</v>
+      <c r="B31" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7"/>
+      <c r="I31" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>0</v>
+      <c r="B32" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10"/>
+      <c r="I32" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>0</v>
+      <c r="B33" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7"/>
+      <c r="I33" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>0</v>
+      <c r="B34" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10"/>
+      <c r="I34" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
       <c r="A35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>0</v>
+      <c r="B35" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="7"/>
+      <c r="I35" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1">
       <c r="A36" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>0</v>
+      <c r="B36" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10"/>
+      <c r="I36" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
       <c r="A37" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B37" s="13"/>
       <c r="C37" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7"/>
+      <c r="I37" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
       <c r="A38" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>0</v>
+      <c r="B38" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10"/>
+      <c r="I38" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1">
       <c r="A39" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1">
       <c r="A40" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>0</v>
+      <c r="B40" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
       <c r="A41" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>0</v>
+      <c r="B41" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="F41" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="15"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="15"/>
+      <c r="I41" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1">
       <c r="A42" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B42" s="17"/>
       <c r="C42" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="3"/>
+      <c r="I42" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:9" ht="15.75" thickBot="1">
       <c r="A43" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>0</v>
-      </c>
+      <c r="B43" s="14"/>
       <c r="C43" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="F43" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="15"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15"/>
+      <c r="I43" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1">
       <c r="A44" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B44" s="12"/>
       <c r="C44" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10"/>
+      <c r="I44" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1">
       <c r="A45" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="C45" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="7"/>
+      <c r="I45" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
       <c r="A46" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B46" s="12"/>
       <c r="C46" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10"/>
+      <c r="I46" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1">
       <c r="A47" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="7"/>
+      <c r="I47" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1">
       <c r="A48" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>0</v>
+      <c r="B48" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10"/>
+      <c r="I48" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1">
       <c r="A49" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B49" s="13"/>
       <c r="C49" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="7"/>
+      <c r="I49" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B50" s="12"/>
       <c r="C50" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10"/>
+      <c r="I50" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1">
       <c r="A51" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="7"/>
+      <c r="I51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1">
       <c r="A52" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B52" s="12"/>
       <c r="C52" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="10"/>
+      <c r="I52" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:9" ht="15.75" thickBot="1">
       <c r="A53" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="7"/>
+      <c r="I53" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1">
       <c r="A54" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B54" s="12"/>
       <c r="C54" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="10"/>
+      <c r="I54" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1">
       <c r="A55" s="13"/>
-      <c r="B55" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="7"/>
+      <c r="I55" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:9" ht="15.75" thickBot="1">
       <c r="A56" s="12"/>
-      <c r="B56" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B56" s="12"/>
       <c r="C56" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10"/>
+      <c r="I56" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:9" ht="15.75" thickBot="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="7"/>
+      <c r="I57" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1">
       <c r="A58" s="9"/>
-      <c r="B58" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B58" s="9"/>
       <c r="C58" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10"/>
+      <c r="I58" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:9" ht="15.75" thickBot="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="7"/>
+      <c r="I59" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:9" ht="15.75" thickBot="1">
       <c r="A60" s="9"/>
-      <c r="B60" s="10" t="s">
-        <v>0</v>
-      </c>
+      <c r="B60" s="9"/>
       <c r="C60" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10"/>
+      <c r="I60" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:9" ht="15.75" thickBot="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="7"/>
+      <c r="I61" s="8" t="s">
         <v>168</v>
       </c>
     </row>

--- a/references/aact codebook.xlsx
+++ b/references/aact codebook.xlsx
@@ -1272,10 +1272,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F48"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:10" ht="15.75" thickBot="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2673,7 +2672,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2996,13 +2995,7 @@
       <c r="J65" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J61">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J61"/>
   <sortState ref="A2:XFD159">
     <sortCondition ref="A2:A159"/>
   </sortState>
